--- a/Pedestrian/View/模型结果/模型结果.xlsx
+++ b/Pedestrian/View/模型结果/模型结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>测试数据data_0810</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,19 +64,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8月25号，在Data_0807数据集上用40000微调训练得到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月25号，在Data_0807数据集上用40000微调训练得到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>snapshot_iter_110000.caffemodel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>snapshot_iter_110000.caffemodel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月25号，在Data_0825数据集上用40000微调训练得到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月25号，在Data_0825数据集上用40000微调训练得到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot_0904_iter_40000.caffemodel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月2号，在Data_0825数据集上训练得到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focal test loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -681,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -732,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -761,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -812,19 +824,84 @@
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="13"/>
     </row>
+    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.78760300000000005</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1.14574</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>